--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Wnt10a-Fzd8.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Wnt10a-Fzd8.xlsx
@@ -537,10 +537,10 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.1705566666666667</v>
+        <v>0.05606233333333333</v>
       </c>
       <c r="H2">
-        <v>0.51167</v>
+        <v>0.168187</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.554362333333333</v>
+        <v>3.390429</v>
       </c>
       <c r="N2">
-        <v>10.663087</v>
+        <v>10.171287</v>
       </c>
       <c r="O2">
-        <v>0.2019894022634335</v>
+        <v>0.173121426386348</v>
       </c>
       <c r="P2">
-        <v>0.2019894022634335</v>
+        <v>0.173121426386348</v>
       </c>
       <c r="Q2">
-        <v>0.6062201916988889</v>
+        <v>0.190075360741</v>
       </c>
       <c r="R2">
-        <v>5.455981725289999</v>
+        <v>1.710678246669</v>
       </c>
       <c r="S2">
-        <v>0.2019894022634335</v>
+        <v>0.173121426386348</v>
       </c>
       <c r="T2">
-        <v>0.2019894022634335</v>
+        <v>0.173121426386348</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,10 +599,10 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.1705566666666667</v>
+        <v>0.05606233333333333</v>
       </c>
       <c r="H3">
-        <v>0.51167</v>
+        <v>0.168187</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -623,22 +623,22 @@
         <v>34.877361</v>
       </c>
       <c r="O3">
-        <v>0.6606770910634029</v>
+        <v>0.5936336753560868</v>
       </c>
       <c r="P3">
-        <v>0.660677091063403</v>
+        <v>0.5936336753560868</v>
       </c>
       <c r="Q3">
-        <v>1.982855478096667</v>
+        <v>0.6517687460563334</v>
       </c>
       <c r="R3">
-        <v>17.84569930287</v>
+        <v>5.865918714507</v>
       </c>
       <c r="S3">
-        <v>0.6606770910634029</v>
+        <v>0.5936336753560868</v>
       </c>
       <c r="T3">
-        <v>0.660677091063403</v>
+        <v>0.5936336753560868</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,10 +661,10 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.1705566666666667</v>
+        <v>0.05606233333333333</v>
       </c>
       <c r="H4">
-        <v>0.51167</v>
+        <v>0.168187</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.390531666666666</v>
+        <v>4.546141666666667</v>
       </c>
       <c r="N4">
-        <v>7.171595</v>
+        <v>13.638425</v>
       </c>
       <c r="O4">
-        <v>0.1358505456558151</v>
+        <v>0.2321342018628743</v>
       </c>
       <c r="P4">
-        <v>0.1358505456558151</v>
+        <v>0.2321342018628743</v>
       </c>
       <c r="Q4">
-        <v>0.4077211126277777</v>
+        <v>0.2548673094972222</v>
       </c>
       <c r="R4">
-        <v>3.669490013649999</v>
+        <v>2.293805785475</v>
       </c>
       <c r="S4">
-        <v>0.1358505456558151</v>
+        <v>0.2321342018628743</v>
       </c>
       <c r="T4">
-        <v>0.1358505456558151</v>
+        <v>0.2321342018628743</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,10 +723,10 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.1705566666666667</v>
+        <v>0.05606233333333333</v>
       </c>
       <c r="H5">
-        <v>0.51167</v>
+        <v>0.168187</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -735,34 +735,34 @@
         <v>1</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.02609533333333333</v>
+        <v>0.021752</v>
       </c>
       <c r="N5">
-        <v>0.07828599999999999</v>
+        <v>0.06525600000000001</v>
       </c>
       <c r="O5">
-        <v>0.001482961017348462</v>
+        <v>0.001110696394691009</v>
       </c>
       <c r="P5">
-        <v>0.001482961017348462</v>
+        <v>0.001110696394691009</v>
       </c>
       <c r="Q5">
-        <v>0.004450733068888889</v>
+        <v>0.001219467874666667</v>
       </c>
       <c r="R5">
-        <v>0.04005659762</v>
+        <v>0.010975210872</v>
       </c>
       <c r="S5">
-        <v>0.001482961017348462</v>
+        <v>0.001110696394691009</v>
       </c>
       <c r="T5">
-        <v>0.001482961017348462</v>
+        <v>0.001110696394691009</v>
       </c>
     </row>
   </sheetData>
